--- a/Auswertung-MR/Excel/Berechnung der 1Dgrößen.xlsx
+++ b/Auswertung-MR/Excel/Berechnung der 1Dgrößen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Documents\Uni\6 Semester\FP1\Kernspin\Bericht\EFNMR-Remote\Auswertung-MR\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4431AEF3-479B-4A46-92DB-803C39039563}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8940209D-4E54-48E8-932F-B4616617295A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{F8BAF54F-F85D-4ED1-B55B-10AD51C17FE6}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Gx</t>
   </si>
@@ -59,10 +59,7 @@
     <t>in y-richtung</t>
   </si>
   <si>
-    <t>15,69cm</t>
-  </si>
-  <si>
-    <t>7,04cm</t>
+    <t>in cm</t>
   </si>
 </sst>
 </file>
@@ -414,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E7DA21-F86A-4BEF-89BF-2BCEB71AA65E}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -446,6 +443,9 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
@@ -456,7 +456,7 @@
         <v>6.0000000000000002E-6</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E2">
         <f>2.675*10^8</f>
@@ -468,10 +468,11 @@
       </c>
       <c r="H2">
         <f>$F2*$D2/(E2*B2)</f>
-        <v>0.15659028802939781</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
+        <v>0.14484601642719297</v>
+      </c>
+      <c r="I2">
+        <f>H2*100</f>
+        <v>14.484601642719298</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
@@ -483,14 +484,21 @@
         <v>4.9999999999999996E-6</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <f>F2*D3/(E2*C3)</f>
-        <v>7.0465629613229011E-2</v>
-      </c>
-      <c r="I3" t="s">
-        <v>9</v>
+        <v>6.5767920972347085E-2</v>
+      </c>
+      <c r="I3">
+        <f>H3*100</f>
+        <v>6.5767920972347085</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H5">
+        <f>I2/10*(I3/20)^2*PI()</f>
+        <v>0.49206747957341895</v>
       </c>
     </row>
   </sheetData>
